--- a/biorubebot-dev-master/Documents/Book4.xlsx
+++ b/biorubebot-dev-master/Documents/Book4.xlsx
@@ -337,10 +337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J28"/>
+  <dimension ref="A2:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -348,7 +348,7 @@
     <col min="1" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>229.4</v>
       </c>
@@ -380,7 +380,7 @@
         <v>42883</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1163</v>
       </c>
@@ -411,7 +411,7 @@
         <v>1250.7142857142858</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>225.8</v>
       </c>
@@ -444,7 +444,7 @@
         <v>42890</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1555</v>
       </c>
@@ -475,7 +475,7 @@
         <v>1209.1428571428571</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>221.4</v>
       </c>
@@ -508,7 +508,7 @@
         <v>42897</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>1176</v>
       </c>
@@ -539,7 +539,7 @@
         <v>1277.1428571428571</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>220.2</v>
       </c>
@@ -572,7 +572,7 @@
         <v>42904</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>1320</v>
       </c>
@@ -602,8 +602,18 @@
         <f>I15/7</f>
         <v>1342.2857142857142</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="U15">
+        <f>(P21+R17)/28</f>
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R17">
+        <f>8*3500</f>
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>215.8</v>
       </c>
@@ -636,7 +646,7 @@
         <v>42911</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>1210</v>
       </c>
@@ -667,12 +677,18 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P21">
+        <f>1750*28</f>
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F27">
         <f>A2-A22</f>
         <v>17.400000000000006</v>
@@ -690,7 +706,7 @@
         <v>105737.00000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J28">
         <f>J27/35</f>
         <v>3021.0571428571438</v>
